--- a/账目明细.xlsx
+++ b/账目明细.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="支出账目" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>账目一览</t>
   </si>
@@ -33,6 +33,12 @@
     <t>总价</t>
   </si>
   <si>
+    <t>公共资金-支出</t>
+  </si>
+  <si>
+    <t>剩余资金</t>
+  </si>
+  <si>
     <t>房租金+网费</t>
   </si>
   <si>
@@ -49,6 +55,18 @@
   </si>
   <si>
     <t>9.5+9.5+6+7</t>
+  </si>
+  <si>
+    <t>洗衣粉+洗衣液+纸杯</t>
+  </si>
+  <si>
+    <t>？+？+？</t>
+  </si>
+  <si>
+    <t>菜板+筷子+钢丝球+垃圾袋</t>
+  </si>
+  <si>
+    <t>27.9+13.5+4.9+7.5</t>
   </si>
 </sst>
 </file>
@@ -56,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -206,23 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +254,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -255,30 +278,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,48 +302,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,13 +362,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,56 +432,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -440,6 +451,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -548,152 +585,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,14 +740,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,199 +1121,280 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="59" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="59" customHeight="1" spans="3:13">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="31" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="3:13">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:10">
-      <c r="A3" s="5">
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="3:13">
+      <c r="C3" s="4">
         <v>42994</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
         <v>18333</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" ht="23" customHeight="1" spans="1:4">
-      <c r="A4" s="5">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="3:10">
+      <c r="C4" s="4">
         <v>42995</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="5" ht="23" customHeight="1" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="3:10">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:4">
-      <c r="A6" s="5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="3:10">
+      <c r="C6" s="4">
         <v>42996</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="3:10">
+      <c r="C7" s="4">
+        <v>43000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:10">
+      <c r="C8" s="4">
+        <v>43001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13">
+        <v>427.3</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="3:10">
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="3:10">
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="3:10">
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="3:10">
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="3:10">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="3:8">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="3:8">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="3:8">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="3:8">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="7">
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1269,7 +1408,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/账目明细.xlsx
+++ b/账目明细.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="支出账目" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="资金分配情况" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>账目一览</t>
   </si>
@@ -39,16 +38,19 @@
     <t>剩余资金</t>
   </si>
   <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
     <t>房租金+网费</t>
   </si>
   <si>
     <t>18000+333</t>
   </si>
   <si>
-    <t>搬家费+巴适消毒液+洗碟精</t>
+    <t>搬家费+巴适消毒液+洗碟精+水</t>
   </si>
   <si>
-    <t>130+7.5</t>
+    <t>130+7.5+18</t>
   </si>
   <si>
     <t>酱油+醋+手套+衣架</t>
@@ -60,7 +62,7 @@
     <t>洗衣粉+洗衣液+纸杯</t>
   </si>
   <si>
-    <t>？+？+？</t>
+    <t>？+12+？</t>
   </si>
   <si>
     <t>菜板+筷子+钢丝球+垃圾袋</t>
@@ -74,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,149 +590,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,27 +742,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -769,9 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -832,6 +819,318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="1019175"/>
+          <a:ext cx="8201025" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>网费</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>111</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，郑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>111</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>给李；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>洗衣机：高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>李</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，磊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>50,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>郑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>洗衣机运费：高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>郑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，磊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>李</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>洗衣液：高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>李</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>郑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>菜板+筷子+钢丝球+垃圾袋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+洗衣粉+纸杯+酱油+醋+手套+衣架+搬家费+巴适消毒液+洗碟精</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>236</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>郑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>79</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>79</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>李</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M20"/>
+  <dimension ref="C1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1147,11 +1446,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="3:13">
       <c r="C2" s="2" t="s">
@@ -1166,235 +1465,256 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" ht="31" customHeight="1" spans="3:13">
-      <c r="C3" s="4">
-        <v>42994</v>
+      <c r="C3" s="3">
+        <v>42993</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>260</v>
+      </c>
+      <c r="F3" s="2">
+        <v>260</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="3:13">
+      <c r="C4" s="3">
+        <v>42994</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
         <v>18333</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" ht="23" customHeight="1" spans="3:10">
-      <c r="C4" s="4">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="3:10">
+      <c r="C5" s="3">
         <v>42995</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
-        <v>137.5</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" ht="23" customHeight="1" spans="3:10">
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="3:10">
-      <c r="C6" s="4">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>155.5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="3:10">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="3:10">
+      <c r="C7" s="3">
         <v>42996</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
         <v>32</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="3:10">
-      <c r="C7" s="4">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" ht="29" customHeight="1" spans="3:10">
+      <c r="C8" s="3">
         <v>43000</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:10">
-      <c r="C8" s="4">
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="3:10">
+      <c r="C9" s="3">
         <v>43001</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
         <v>53.8</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7">
         <v>427.3</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="3:10">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="3:10">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" ht="29" customHeight="1" spans="3:10">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="3:10">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="3:10">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="3:10">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="3:10">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" ht="28" customHeight="1" spans="3:10">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="3:10">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="3:8">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="3:10">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="3:8">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="3:8">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="3:8">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="3:8">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1407,8 +1727,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,22 +1736,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/账目明细.xlsx
+++ b/账目明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="支出账目" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>账目一览</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>27.9+13.5+4.9+7.5</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>300-18=282</t>
+  </si>
+  <si>
+    <t>282-18=264</t>
+  </si>
+  <si>
+    <t>洗衣液</t>
+  </si>
+  <si>
+    <t>264-33.5=230.5</t>
+  </si>
+  <si>
+    <t>电费</t>
+  </si>
+  <si>
+    <t>230.5-50=180.5</t>
+  </si>
+  <si>
+    <t>记给小武</t>
+  </si>
+  <si>
+    <t>180.5-18=162.5</t>
   </si>
 </sst>
 </file>
@@ -77,14 +104,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -113,6 +147,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -122,6 +164,81 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,14 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -151,88 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -240,8 +267,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,187 +284,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,15 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,6 +555,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -535,6 +584,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,30 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,141 +642,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,6 +794,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -906,11 +958,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>给李；</a:t>
+            <a:t>，给李；</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1078,11 +1126,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>：</a:t>
+            <a:t>）：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1420,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M21"/>
+  <dimension ref="C1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,278 +1477,329 @@
     <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="59" customHeight="1" spans="3:13">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="3:13">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" ht="31" customHeight="1" spans="3:13">
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>42993</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>260</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>260</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" ht="31" customHeight="1" spans="3:13">
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>42994</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>18333</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="3:10">
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>42995</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>155.5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="23" customHeight="1" spans="3:10">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="3:10">
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>42996</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>32</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" ht="29" customHeight="1" spans="3:10">
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>43000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>20.5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="3:10">
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>43001</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>53.8</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="10">
         <v>427.3</v>
       </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" ht="29" customHeight="1" spans="3:10">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="3:10">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="9" customHeight="1" spans="3:10">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="6:10">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>300</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="3:10">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="C12" s="4">
+        <v>43002</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="3:10">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="4">
+        <v>43020</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="3:10">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="3:8">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
+      <c r="C14" s="4">
+        <v>43023</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="3:10">
+      <c r="C15" s="4">
+        <v>43027</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="3:8">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="4">
+        <v>43028</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" ht="33" customHeight="1" spans="3:8">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="3:8">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="3:8">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1727,8 +1822,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/账目明细.xlsx
+++ b/账目明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="支出账目" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>账目一览</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>180.5-18=162.5</t>
+  </si>
+  <si>
+    <t>卫生纸</t>
+  </si>
+  <si>
+    <t>（高）</t>
+  </si>
+  <si>
+    <t>18（康）</t>
+  </si>
+  <si>
+    <t>暖气费</t>
+  </si>
+  <si>
+    <t>小武</t>
   </si>
 </sst>
 </file>
@@ -103,9 +118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -138,6 +153,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -147,44 +193,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +231,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,14 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -244,30 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -290,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +555,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,24 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +611,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -630,149 +645,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +810,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1466,8 +1487,8 @@
   <sheetPr/>
   <dimension ref="C1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1490,11 +1511,11 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="3:13">
       <c r="C2" s="3" t="s">
@@ -1515,11 +1536,11 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" ht="31" customHeight="1" spans="3:13">
       <c r="C3" s="4">
@@ -1536,11 +1557,11 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" ht="31" customHeight="1" spans="3:13">
       <c r="C4" s="4">
@@ -1557,11 +1578,11 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="3:10">
       <c r="C5" s="4">
@@ -1578,8 +1599,8 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" ht="23" customHeight="1" spans="3:10">
       <c r="C6" s="4"/>
@@ -1588,8 +1609,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="3:10">
       <c r="C7" s="4">
@@ -1606,8 +1627,8 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" ht="29" customHeight="1" spans="3:10">
       <c r="C8" s="4">
@@ -1624,8 +1645,8 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="3:10">
       <c r="C9" s="4">
@@ -1642,10 +1663,10 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10">
+      <c r="I9" s="12">
         <v>427.3</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="9" customHeight="1" spans="3:10">
       <c r="C10" s="7"/>
@@ -1654,8 +1675,8 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="6:10">
       <c r="F11" s="3"/>
@@ -1663,8 +1684,8 @@
       <c r="H11" s="3">
         <v>300</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="3:10">
       <c r="C12" s="4">
@@ -1681,8 +1702,8 @@
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="3:10">
       <c r="C13" s="4">
@@ -1699,8 +1720,8 @@
       <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="3:10">
       <c r="C14" s="4">
@@ -1717,8 +1738,8 @@
       <c r="H14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="3:10">
       <c r="C15" s="4">
@@ -1735,10 +1756,10 @@
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="3:8">
       <c r="C16" s="4">
@@ -1752,54 +1773,82 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="33" customHeight="1" spans="3:8">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="4">
+        <v>43036</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="3:8">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="4">
+        <v>43041</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="3:8">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="4">
+        <v>43050</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3351</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="3:9">
+      <c r="C20" s="9">
+        <v>43051</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10">
+        <v>100</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/账目明细.xlsx
+++ b/账目明细.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>账目一览</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>小武</t>
+  </si>
+  <si>
+    <t>162.5-18=144.5</t>
+  </si>
+  <si>
+    <t>纸杯+垃圾袋+洗涤剂</t>
+  </si>
+  <si>
+    <t>3.5+2+10</t>
+  </si>
+  <si>
+    <t>144.5-15.5=129</t>
   </si>
 </sst>
 </file>
@@ -118,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -184,6 +196,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -208,37 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,44 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -311,6 +323,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,18 +455,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,55 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,72 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,16 +552,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -565,21 +577,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -590,30 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +610,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,145 +657,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1487,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="C1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1820,35 +1832,53 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="3:9">
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>43051</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
       <c r="I20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+    <row r="21" ht="25" customHeight="1" spans="3:8">
+      <c r="C21" s="9">
+        <v>43054</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:8">
+      <c r="C22" s="9">
+        <v>43066</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
